--- a/data/data_quality_rules.xlsx
+++ b/data/data_quality_rules.xlsx
@@ -3003,7 +3003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5981,10 +5981,14 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>optional</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr"/>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>([histopat] = '0')</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
@@ -6035,10 +6039,14 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>optional</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr"/>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>([histopat] = '0')</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
@@ -6063,27 +6071,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>tnm_pn</t>
+          <t>tnm_pt</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>uc3_tnm_pn_type</t>
+          <t>uc3_tnm_pt_min_req</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>conformance</t>
+          <t>completeness</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>datatype</t>
+          <t>minimal_req</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>isinteger[tnm_pn]</t>
+          <t>[histopat] = '0' AND [tnm_pt] = ''</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -6093,20 +6101,24 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>optional</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr"/>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>([histopat] = '0')</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>0; pNx | 1; pN0 | 2; pN1 | 3; pN2</t>
+          <t>0; pTX | 1; pT0 | 2; pTis | 3; pT1 | 4; pT2 | 5; pT3 | 6; pT4 | 7; pT4a | 8; pT4b</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>pN classification of the primary tumour does not conform to assigned datatype</t>
+          <t>pT classification of the primary tumour is expected to meet minimal requirements</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6138,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>uc3_tnm_pn_permissible</t>
+          <t>uc3_tnm_pn_type</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -6136,10 +6148,14 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>permissible</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>datatype</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>isinteger[tnm_pn]</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
           <t>integer</t>
@@ -6147,10 +6163,14 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>optional</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr"/>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>([histopat] = '0')</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
@@ -6160,7 +6180,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>pN classification of the primary tumour does not conform to the expected code list</t>
+          <t>pN classification of the primary tumour does not conform to assigned datatype</t>
         </is>
       </c>
     </row>
@@ -6175,12 +6195,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>tnm_pm</t>
+          <t>tnm_pn</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>uc3_tnm_pm_type</t>
+          <t>uc3_tnm_pn_permissible</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -6190,14 +6210,10 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>datatype</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>isinteger[tnm_pm]</t>
-        </is>
-      </c>
+          <t>permissible</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
           <t>integer</t>
@@ -6205,20 +6221,24 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>optional</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr"/>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>([histopat] = '0')</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>0; pM0 | 1; pM1 | 2; pM1a | 3; pM1b | 4; pM1c</t>
+          <t>0; pNx | 1; pN0 | 2; pN1 | 3; pN2</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>pM classification of the primary tumour does not conform to assigned datatype</t>
+          <t>pN classification of the primary tumour does not conform to the expected code list</t>
         </is>
       </c>
     </row>
@@ -6233,25 +6253,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>tnm_pm</t>
+          <t>tnm_pn</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>uc3_tnm_pm_permissible</t>
+          <t>uc3_tnm_pn_min_req</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>conformance</t>
+          <t>completeness</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>permissible</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
+          <t>minimal_req</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>[histopat] = '0' AND [tnm_pn] = ''</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr">
         <is>
           <t>integer</t>
@@ -6259,20 +6283,24 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>optional</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr"/>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>([histopat] = '0')</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>0; pM0 | 1; pM1 | 2; pM1a | 3; pM1b | 4; pM1c</t>
+          <t>0; pNx | 1; pN0 | 2; pN1 | 3; pN2</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>pM classification of the primary tumour does not conform to the expected code list</t>
+          <t>pN classification of the primary tumour is expected to meet minimal requirements</t>
         </is>
       </c>
     </row>
@@ -6287,12 +6315,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>tnm_ct</t>
+          <t>tnm_pm</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>uc3_tnm_ct_type</t>
+          <t>uc3_tnm_pm_type</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -6307,7 +6335,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>isinteger[tnm_ct]</t>
+          <t>isinteger[tnm_pm]</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -6317,20 +6345,24 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>optional</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr"/>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>([histopat] = '0')</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>0; cTX | 1; cT0 | 2; cTis | 3; cT1 | 4; cT2 | 5; cT3 | 6; cT4 | 7; cT4a | 8; cT4b</t>
+          <t>0; pM0 | 1; pM1 | 2; pM1a | 3; pM1b | 4; pM1c</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>cT classification of the primary tumour does not conform to assigned datatype</t>
+          <t>pM classification of the primary tumour does not conform to assigned datatype</t>
         </is>
       </c>
     </row>
@@ -6345,12 +6377,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>tnm_ct</t>
+          <t>tnm_pm</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>uc3_tnm_ct_permissible</t>
+          <t>uc3_tnm_pm_permissible</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -6371,20 +6403,24 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>optional</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr"/>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>([histopat] = '0')</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>0; cTX | 1; cT0 | 2; cTis | 3; cT1 | 4; cT2 | 5; cT3 | 6; cT4 | 7; cT4a | 8; cT4b</t>
+          <t>0; pM0 | 1; pM1 | 2; pM1a | 3; pM1b | 4; pM1c</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>cT classification of the primary tumour does not conform to the expected code list</t>
+          <t>pM classification of the primary tumour does not conform to the expected code list</t>
         </is>
       </c>
     </row>
@@ -6399,27 +6435,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>tnm_cn</t>
+          <t>tnm_pm</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>uc3_tnm_cn_type</t>
+          <t>uc3_tnm_pm_min_req</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>conformance</t>
+          <t>completeness</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>datatype</t>
+          <t>minimal_req</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>isinteger[tnm_cn]</t>
+          <t>[histopat] = '0' AND [tnm_pm] = ''</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -6429,20 +6465,24 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>optional</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr"/>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>([histopat] = '0')</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>0; cNX | 1; cN0 | 2; cN1 | 3; cN2</t>
+          <t>0; pM0 | 1; pM1 | 2; pM1a | 3; pM1b | 4; pM1c</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>cN classification of the primary tumour does not conform to assigned datatype</t>
+          <t>pM classification of the primary tumour is expected to meet minimal requirements</t>
         </is>
       </c>
     </row>
@@ -6457,12 +6497,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>tnm_cn</t>
+          <t>tnm_ct</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>uc3_tnm_cn_permissible</t>
+          <t>uc3_tnm_ct_type</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -6472,10 +6512,14 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>permissible</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
+          <t>datatype</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>isinteger[tnm_ct]</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
           <t>integer</t>
@@ -6483,20 +6527,24 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>optional</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr"/>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>([histopat] = '0' AND [tnm_pt] = '')</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>0; cNX | 1; cN0 | 2; cN1 | 3; cN2</t>
+          <t>0; cTX | 1; cT0 | 2; cTis | 3; cT1 | 4; cT2 | 5; cT3 | 6; cT4 | 7; cT4a | 8; cT4b</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>cN classification of the primary tumour does not conform to the expected code list</t>
+          <t>cT classification of the primary tumour does not conform to assigned datatype</t>
         </is>
       </c>
     </row>
@@ -6511,12 +6559,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>tnm_cm</t>
+          <t>tnm_ct</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>uc3_tnm_cm_type</t>
+          <t>uc3_tnm_ct_permissible</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -6526,14 +6574,10 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>datatype</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>isinteger[tnm_cm]</t>
-        </is>
-      </c>
+          <t>permissible</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
           <t>integer</t>
@@ -6541,20 +6585,24 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>optional</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr"/>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>([histopat] = '0' AND [tnm_pt] = '')</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>0; cM0 | 1; cM1 | 2; cM1a | 3; cM1b | 4; cM1c</t>
+          <t>0; cTX | 1; cT0 | 2; cTis | 3; cT1 | 4; cT2 | 5; cT3 | 6; cT4 | 7; cT4a | 8; cT4b</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>cM classification of the primary tumour does not conform to assigned datatype</t>
+          <t>cT classification of the primary tumour does not conform to the expected code list</t>
         </is>
       </c>
     </row>
@@ -6569,25 +6617,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>tnm_cm</t>
+          <t>tnm_ct</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>uc3_tnm_cm_permissible</t>
+          <t>uc3_tnm_ct_min_req</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>conformance</t>
+          <t>completeness</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>permissible</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
+          <t>minimal_req</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>[histopat] = '0' AND [tnm_pt] = '' AND [tnm_ct] = ''</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr">
         <is>
           <t>integer</t>
@@ -6595,20 +6647,388 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>optional</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr"/>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>([histopat] = '0' AND [tnm_pt] = '')</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
+          <t>0; cTX | 1; cT0 | 2; cTis | 3; cT1 | 4; cT2 | 5; cT3 | 6; cT4 | 7; cT4a | 8; cT4b</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>cT classification of the primary tumour is expected to meet minimal requirements</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>tnm_cn</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>uc3_tnm_cn_type</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>conformance</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>datatype</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>isinteger[tnm_cn]</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>([histopat] = '0' AND [tnm_pn] = '')</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>0; cNX | 1; cN0 | 2; cN1 | 3; cN2</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>cN classification of the primary tumour does not conform to assigned datatype</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>tnm_cn</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>uc3_tnm_cn_permissible</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>conformance</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>permissible</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>([histopat] = '0' AND [tnm_pn] = '')</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>0; cNX | 1; cN0 | 2; cN1 | 3; cN2</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>cN classification of the primary tumour does not conform to the expected code list</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>tnm_cn</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>uc3_tnm_cn_min_req</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>completeness</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>minimal_req</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>[histopat] = '0' AND [tnm_pn] = '' AND [tnm_cn] = ''</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>([histopat] = '0' AND [tnm_pn] = '')</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0; cNX | 1; cN0 | 2; cN1 | 3; cN2</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>cN classification of the primary tumour is expected to meet minimal requirements</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>tnm_cm</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>uc3_tnm_cm_type</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>conformance</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>datatype</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>isinteger[tnm_cm]</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>([histopat] = '0' AND [tnm_pm] = '')</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
           <t>0; cM0 | 1; cM1 | 2; cM1a | 3; cM1b | 4; cM1c</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>cM classification of the primary tumour does not conform to assigned datatype</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>tnm_cm</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>uc3_tnm_cm_permissible</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>conformance</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>permissible</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>([histopat] = '0' AND [tnm_pm] = '')</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>0; cM0 | 1; cM1 | 2; cM1a | 3; cM1b | 4; cM1c</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
         <is>
           <t>cM classification of the primary tumour does not conform to the expected code list</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>tnm_cm</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>uc3_tnm_cm_min_req</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>completeness</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>minimal_req</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>[histopat] = '0' AND [tnm_pm] = '' AND [tnm_cm] = ''</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>([histopat] = '0' AND [tnm_pm] = '')</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>0; cM0 | 1; cM1 | 2; cM1a | 3; cM1b | 4; cM1c</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>cM classification of the primary tumour is expected to meet minimal requirements</t>
         </is>
       </c>
     </row>
@@ -15180,7 +15600,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>([her2ihq] = '2')</t>
+          <t>([her2ihc] = '2')</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -15238,7 +15658,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>([her2ihq] = '2')</t>
+          <t>([her2ihc] = '2')</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -15285,7 +15705,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[her2ihq] = '2' AND [her2fish] = ''</t>
+          <t>[her2ihc] = '2' AND [her2fish] = ''</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -15300,7 +15720,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>([her2ihq] = '2')</t>
+          <t>([her2ihc] = '2')</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -28918,9 +29338,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7247D29A-A396-4783-A43D-0EE01F851259}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A81FBBB2-8EB0-4BA5-8A90-2EF8C0F32A9A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C543C727-5984-4074-9FDE-E7DF2FC9F9F0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD7B83DB-466A-42AD-9241-41615C056CFB}"/>
 </file>